--- a/excel/finished/焦化45/CK45-化产-中控操作(一).xlsx
+++ b/excel/finished/焦化45/CK45-化产-中控操作(一).xlsx
@@ -2837,6 +2837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100">
+      <pane state="frozen" topLeftCell="C10" xSplit="2" ySplit="9"/>
       <selection activeCell="U13" activeCellId="0" sqref="U13"/>
     </sheetView>
   </sheetViews>
